--- a/Data/MK8_Tournaments_Elo.xlsx
+++ b/Data/MK8_Tournaments_Elo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1774"/>
+  <dimension ref="A1:E1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31641,87 +31641,87 @@
     </row>
     <row r="1643">
       <c r="A1643" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1643" t="n">
         <v>1</v>
       </c>
       <c r="D1643" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E1643" t="n">
-        <v>1092</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1644" t="n">
         <v>1</v>
       </c>
       <c r="D1644" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1644" t="n">
-        <v>1180</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1645">
       <c r="A1645" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1645" t="n">
         <v>1</v>
       </c>
       <c r="D1645" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1645" t="n">
-        <v>1291</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1646">
       <c r="A1646" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1646" t="n">
         <v>1</v>
       </c>
       <c r="D1646" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1646" t="n">
-        <v>909</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1647" t="n">
@@ -31731,168 +31731,168 @@
         <v>51</v>
       </c>
       <c r="E1647" t="n">
-        <v>1127</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1648" t="n">
         <v>2</v>
       </c>
       <c r="D1648" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1648" t="n">
-        <v>1067</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Ilir</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1649" t="n">
         <v>2</v>
       </c>
       <c r="D1649" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E1649" t="n">
-        <v>1197</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1650" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1650" t="n">
         <v>2</v>
       </c>
       <c r="D1650" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1650" t="n">
-        <v>1226</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1651">
       <c r="A1651" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1651" t="n">
         <v>3</v>
       </c>
       <c r="D1651" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1651" t="n">
-        <v>1314</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1652" t="n">
         <v>3</v>
       </c>
       <c r="D1652" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E1652" t="n">
-        <v>1226</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1653" t="n">
         <v>3</v>
       </c>
       <c r="D1653" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1653" t="n">
-        <v>1060</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1654">
       <c r="A1654" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1654" t="n">
         <v>3</v>
       </c>
       <c r="D1654" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1654" t="n">
-        <v>892</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1655">
       <c r="A1655" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1655" t="n">
         <v>4</v>
       </c>
       <c r="D1655" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1655" t="n">
-        <v>1222</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1656">
       <c r="A1656" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1656" t="n">
@@ -31902,92 +31902,92 @@
         <v>47</v>
       </c>
       <c r="E1656" t="n">
-        <v>1146</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1657">
       <c r="A1657" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1657" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1657" t="n">
         <v>4</v>
       </c>
       <c r="D1657" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E1657" t="n">
-        <v>1086</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1658">
       <c r="A1658" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1658" t="inlineStr">
         <is>
-          <t>Ilir</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1658" t="n">
         <v>4</v>
       </c>
       <c r="D1658" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1658" t="n">
-        <v>1140</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1659">
       <c r="A1659" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1659" t="n">
         <v>5</v>
       </c>
       <c r="D1659" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1659" t="n">
-        <v>1258</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1660">
       <c r="A1660" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1660" t="n">
         <v>5</v>
       </c>
       <c r="D1660" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1660" t="n">
-        <v>1222</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1661">
       <c r="A1661" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1661" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1661" t="n">
@@ -31997,187 +31997,187 @@
         <v>41</v>
       </c>
       <c r="E1661" t="n">
-        <v>909</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1662">
       <c r="A1662" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1662" t="n">
         <v>5</v>
       </c>
       <c r="D1662" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1662" t="n">
-        <v>1095</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1663">
       <c r="A1663" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1663" t="n">
         <v>6</v>
       </c>
       <c r="D1663" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1663" t="n">
-        <v>1320</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1664">
       <c r="A1664" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1664" t="n">
         <v>6</v>
       </c>
       <c r="D1664" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1664" t="n">
-        <v>1272</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1665">
       <c r="A1665" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1665" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1665" t="n">
         <v>6</v>
       </c>
       <c r="D1665" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1665" t="n">
-        <v>908</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1666" t="n">
         <v>6</v>
       </c>
       <c r="D1666" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1666" t="n">
-        <v>1039</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Ilir</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1667" t="n">
         <v>7</v>
       </c>
       <c r="D1667" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1667" t="n">
-        <v>1183</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1668">
       <c r="A1668" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1668" t="n">
         <v>7</v>
       </c>
       <c r="D1668" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1668" t="n">
-        <v>1219</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1669">
       <c r="A1669" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t>lev</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1669" t="n">
         <v>7</v>
       </c>
       <c r="D1669" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1669" t="n">
-        <v>1003</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1670">
       <c r="A1670" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1670" t="n">
         <v>7</v>
       </c>
       <c r="D1670" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1670" t="n">
-        <v>1042</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1671">
       <c r="A1671" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t>Ilir</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1671" t="n">
@@ -32187,130 +32187,130 @@
         <v>60</v>
       </c>
       <c r="E1671" t="n">
-        <v>1214</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1672" t="n">
         <v>8</v>
       </c>
       <c r="D1672" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1672" t="n">
-        <v>1047</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1673" t="n">
         <v>8</v>
       </c>
       <c r="D1673" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1673" t="n">
-        <v>1093</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1674" t="n">
         <v>8</v>
       </c>
       <c r="D1674" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E1674" t="n">
-        <v>1002</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1675">
       <c r="A1675" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1675" t="n">
         <v>9</v>
       </c>
       <c r="D1675" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E1675" t="n">
-        <v>1220</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1676">
       <c r="A1676" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1676" t="n">
         <v>9</v>
       </c>
       <c r="D1676" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E1676" t="n">
-        <v>1297</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1677">
       <c r="A1677" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1677" t="n">
         <v>9</v>
       </c>
       <c r="D1677" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1677" t="n">
-        <v>1050</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1678">
       <c r="A1678" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1678" t="n">
@@ -32320,183 +32320,183 @@
         <v>39</v>
       </c>
       <c r="E1678" t="n">
-        <v>923</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1679">
       <c r="A1679" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1679" t="n">
         <v>10</v>
       </c>
       <c r="D1679" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1679" t="n">
-        <v>1341</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1680">
       <c r="A1680" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Ilir</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1680" t="n">
         <v>10</v>
       </c>
       <c r="D1680" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1680" t="n">
-        <v>1218</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1681">
       <c r="A1681" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1681" t="n">
         <v>10</v>
       </c>
       <c r="D1681" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1681" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1682">
       <c r="A1682" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="C1682" t="n">
         <v>10</v>
       </c>
       <c r="D1682" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1682" t="n">
-        <v>976</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1683">
       <c r="A1683" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1683" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1683" t="n">
         <v>11</v>
       </c>
       <c r="D1683" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1683" t="n">
-        <v>1088</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1684">
       <c r="A1684" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1684" t="n">
         <v>11</v>
       </c>
       <c r="D1684" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1684" t="n">
-        <v>888</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1685">
       <c r="A1685" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1685" t="n">
         <v>11</v>
       </c>
       <c r="D1685" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E1685" t="n">
-        <v>1053</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1686">
       <c r="A1686" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="C1686" t="n">
         <v>11</v>
       </c>
       <c r="D1686" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1686" t="n">
-        <v>964</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1687">
       <c r="A1687" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1687" t="n">
         <v>12</v>
       </c>
       <c r="D1687" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1687" t="n">
-        <v>1344</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1688">
       <c r="A1688" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1688" t="inlineStr">
         <is>
@@ -32507,34 +32507,34 @@
         <v>12</v>
       </c>
       <c r="D1688" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E1688" t="n">
-        <v>1211</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1689">
       <c r="A1689" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1689" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1689" t="n">
         <v>12</v>
       </c>
       <c r="D1689" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E1689" t="n">
-        <v>1339</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1690">
       <c r="A1690" t="n">
-        <v>20240812</v>
+        <v>20240603</v>
       </c>
       <c r="B1690" t="inlineStr">
         <is>
@@ -32545,167 +32545,167 @@
         <v>12</v>
       </c>
       <c r="D1690" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1690" t="n">
-        <v>1180</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1691">
       <c r="A1691" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t>Sacha</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1691" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1691" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E1691" t="n">
-        <v>1433</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1692" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1692" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1692" t="n">
-        <v>925</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1693">
       <c r="A1693" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1693" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1693" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E1693" t="n">
-        <v>1125</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1694">
       <c r="A1694" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Maïa</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1694" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1694" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E1694" t="n">
-        <v>792</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1695" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1695" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1695" t="n">
-        <v>1213</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1696" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1696" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1696" t="n">
-        <v>1060</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1697">
       <c r="A1697" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Benoit</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1697" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1697" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1697" t="n">
-        <v>1071</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1698">
       <c r="A1698" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="C1698" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1698" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E1698" t="n">
-        <v>1041</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1699">
       <c r="A1699" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1699" t="inlineStr">
         <is>
@@ -32713,170 +32713,170 @@
         </is>
       </c>
       <c r="C1699" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1699" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1699" t="n">
-        <v>1376</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Sacha</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1700" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1700" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1700" t="n">
-        <v>1421</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1701">
       <c r="A1701" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C1701" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1701" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1701" t="n">
-        <v>1200</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1702">
       <c r="A1702" t="n">
-        <v>20240916</v>
+        <v>20240603</v>
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1702" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D1702" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1702" t="n">
-        <v>915</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1703">
       <c r="A1703" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1703" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1703" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E1703" t="n">
-        <v>1163</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1704">
       <c r="A1704" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1704" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1704" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E1704" t="n">
-        <v>1078</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1705">
       <c r="A1705" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1705" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1705" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E1705" t="n">
-        <v>1031</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Benoit</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1706" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1706" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1706" t="n">
-        <v>1023</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1707" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1707" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1707" t="n">
-        <v>1385</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
@@ -32884,113 +32884,113 @@
         </is>
       </c>
       <c r="C1708" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1708" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1708" t="n">
-        <v>1091</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1709">
       <c r="A1709" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Benoit</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1709" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1709" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1709" t="n">
-        <v>1012</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1710">
       <c r="A1710" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>Maïa</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1710" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1710" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1710" t="n">
-        <v>779</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>Sacha</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1711" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1711" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1711" t="n">
-        <v>1431</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1712">
       <c r="A1712" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1712" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1712" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1712" t="n">
-        <v>1173</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1713" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1713" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1713" t="n">
-        <v>1028</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
@@ -32998,18 +32998,18 @@
         </is>
       </c>
       <c r="C1714" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1714" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1714" t="n">
-        <v>896</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
@@ -33017,151 +33017,151 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1715" t="n">
         <v>52</v>
       </c>
       <c r="E1715" t="n">
-        <v>1221</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1716" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1716" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E1716" t="n">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Maïa</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1717" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1717" t="n">
-        <v>797</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1718">
       <c r="A1718" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>Benoit</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1718" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1718" t="n">
-        <v>966</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Sacha</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1719" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1719" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1719" t="n">
-        <v>1442</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1720">
       <c r="A1720" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1720" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1720" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1720" t="n">
-        <v>1137</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1721">
       <c r="A1721" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1721" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1721" t="n">
-        <v>1071</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1722">
       <c r="A1722" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1722" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1722" t="n">
-        <v>945</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1723">
       <c r="A1723" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
@@ -33169,303 +33169,303 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1723" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1723" t="n">
-        <v>1371</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1724">
       <c r="A1724" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1724" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E1724" t="n">
-        <v>1200</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1725" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1725" t="n">
-        <v>1005</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1726" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E1726" t="n">
-        <v>1193</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Sacha</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1727" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1727" t="n">
-        <v>1430</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1728" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1728" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E1728" t="n">
-        <v>934</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1729">
       <c r="A1729" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>lev</t>
         </is>
       </c>
       <c r="C1729" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1729" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1729" t="n">
-        <v>1184</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1730">
       <c r="A1730" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1730" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1730" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E1730" t="n">
-        <v>1401</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1731">
       <c r="A1731" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>Cuong</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1731" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1731" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E1731" t="n">
-        <v>1044</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1732">
       <c r="A1732" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1732" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1732" t="n">
         <v>40</v>
       </c>
       <c r="E1732" t="n">
-        <v>1159</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1733">
       <c r="A1733" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1733" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1733" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E1733" t="n">
-        <v>1099</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1734">
       <c r="A1734" t="n">
-        <v>20240916</v>
+        <v>20240812</v>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Nath</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1734" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1734" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1734" t="n">
-        <v>905</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1735" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1735" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1735" t="n">
-        <v>1147</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1736" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1736" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E1736" t="n">
-        <v>1165</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1737">
       <c r="A1737" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1737" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1737" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E1737" t="n">
-        <v>971</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1738" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1738" t="n">
-        <v>1122</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1739">
       <c r="A1739" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
@@ -33473,208 +33473,208 @@
         </is>
       </c>
       <c r="C1739" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1739" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1739" t="n">
-        <v>1415</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1740">
       <c r="A1740" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1740" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1740" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1740" t="n">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1741" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1741" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1741" t="n">
-        <v>983</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1742">
       <c r="A1742" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1742" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1742" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E1742" t="n">
-        <v>1080</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1743">
       <c r="A1743" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1743" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1743" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1743" t="n">
-        <v>1375</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1744">
       <c r="A1744" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1744" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1744" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E1744" t="n">
-        <v>1210</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1745" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1745" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1745" t="n">
-        <v>1375</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1746" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1746" t="n">
-        <v>1118</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1747">
       <c r="A1747" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1747" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1747" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1747" t="n">
-        <v>1391</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Ilir</t>
         </is>
       </c>
       <c r="C1748" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1748" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1748" t="n">
-        <v>1025</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="C1749" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1749" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1749" t="n">
-        <v>1076</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="n">
-        <v>20241007</v>
+        <v>20240812</v>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
@@ -33682,170 +33682,170 @@
         </is>
       </c>
       <c r="C1750" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1750" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1750" t="n">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1751" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1751" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E1751" t="n">
-        <v>1184</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1752" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1752" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E1752" t="n">
-        <v>1370</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1753" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1753" t="n">
         <v>38</v>
       </c>
       <c r="E1753" t="n">
-        <v>1352</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Maïa</t>
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1754" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1754" t="n">
-        <v>1052</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1755" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1755" t="n">
-        <v>1397</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1756" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1756" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1756" t="n">
-        <v>1349</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1757" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1757" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1757" t="n">
-        <v>1176</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1758">
       <c r="A1758" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1758" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1758" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1759">
       <c r="A1759" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1759" t="inlineStr">
         <is>
@@ -33853,121 +33853,121 @@
         </is>
       </c>
       <c r="C1759" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1759" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1759" t="n">
-        <v>1417</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1760">
       <c r="A1760" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1760" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1760" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1760" t="n">
-        <v>1089</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1761">
       <c r="A1761" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Florian</t>
         </is>
       </c>
       <c r="C1761" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1761" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1761" t="n">
-        <v>1312</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1762">
       <c r="A1762" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Nath</t>
         </is>
       </c>
       <c r="C1762" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1762" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E1762" t="n">
-        <v>986</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1763">
       <c r="A1763" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1763" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1763" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E1763" t="n">
-        <v>1335</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1764" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1764" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1764" t="n">
-        <v>1170</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1765" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1765" t="n">
         <v>39</v>
@@ -33978,173 +33978,1313 @@
     </row>
     <row r="1766">
       <c r="A1766" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1766" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1766" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1766" t="n">
-        <v>1124</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1767" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1767" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1767" t="n">
-        <v>1369</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Florian</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1768" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1768" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1768" t="n">
-        <v>1199</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="C1769" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1769" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1769" t="n">
-        <v>1375</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1770">
       <c r="A1770" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1770" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Maïa</t>
         </is>
       </c>
       <c r="C1770" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1770" t="n">
         <v>34</v>
       </c>
       <c r="E1770" t="n">
-        <v>1066</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1771">
       <c r="A1771" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Sacha</t>
         </is>
       </c>
       <c r="C1771" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1771" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E1771" t="n">
-        <v>1173</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Lev</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1772" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1772" t="n">
-        <v>1356</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" t="n">
-        <v>20241007</v>
+        <v>20240916</v>
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Cuong</t>
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1773" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E1773" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>Maïa</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>Benoit</t>
+        </is>
+      </c>
+      <c r="C1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1792" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>20240916</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
         <v>20241007</v>
       </c>
-      <c r="B1774" t="inlineStr">
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1798" t="inlineStr">
         <is>
           <t>Julien</t>
         </is>
       </c>
-      <c r="C1774" t="n">
+      <c r="C1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>57</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
         <v>10</v>
       </c>
-      <c r="D1774" t="n">
+      <c r="D1831" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>20241007</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1834" t="n">
         <v>40</v>
       </c>
-      <c r="E1774" t="n">
-        <v>1028</v>
+      <c r="E1834" t="n">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MK8_Tournaments_Elo.xlsx
+++ b/Data/MK8_Tournaments_Elo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1834"/>
+  <dimension ref="A1:E1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35287,6 +35287,842 @@
         <v>1012</v>
       </c>
     </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>57</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>Cuong</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>20241104</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/MK8_Tournaments_Elo.xlsx
+++ b/Data/MK8_Tournaments_Elo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1878"/>
+  <dimension ref="A1:E1942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33251,7 +33251,7 @@
         <v>50</v>
       </c>
       <c r="E1727" t="n">
-        <v>1154</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1728">
@@ -33270,7 +33270,7 @@
         <v>49</v>
       </c>
       <c r="E1728" t="n">
-        <v>1164</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1729">
@@ -33279,7 +33279,7 @@
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>lev</t>
+          <t>Lev</t>
         </is>
       </c>
       <c r="C1729" t="n">
@@ -33289,7 +33289,7 @@
         <v>45</v>
       </c>
       <c r="E1729" t="n">
-        <v>999</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1730">
@@ -33308,7 +33308,7 @@
         <v>34</v>
       </c>
       <c r="E1730" t="n">
-        <v>1030</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1731">
@@ -33327,7 +33327,7 @@
         <v>60</v>
       </c>
       <c r="E1731" t="n">
-        <v>1186</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1732">
@@ -33346,7 +33346,7 @@
         <v>40</v>
       </c>
       <c r="E1732" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1733">
@@ -33365,7 +33365,7 @@
         <v>40</v>
       </c>
       <c r="E1733" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1734">
@@ -33384,7 +33384,7 @@
         <v>25</v>
       </c>
       <c r="E1734" t="n">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1735">
@@ -33403,7 +33403,7 @@
         <v>45</v>
       </c>
       <c r="E1735" t="n">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1736">
@@ -33422,7 +33422,7 @@
         <v>57</v>
       </c>
       <c r="E1736" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1737">
@@ -33441,7 +33441,7 @@
         <v>33</v>
       </c>
       <c r="E1737" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1738">
@@ -33479,7 +33479,7 @@
         <v>54</v>
       </c>
       <c r="E1739" t="n">
-        <v>1351</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1740">
@@ -33498,7 +33498,7 @@
         <v>48</v>
       </c>
       <c r="E1740" t="n">
-        <v>1193</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1741">
@@ -33536,7 +33536,7 @@
         <v>33</v>
       </c>
       <c r="E1742" t="n">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1743">
@@ -33555,7 +33555,7 @@
         <v>47</v>
       </c>
       <c r="E1743" t="n">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1744">
@@ -33574,7 +33574,7 @@
         <v>34</v>
       </c>
       <c r="E1744" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1745">
@@ -33612,7 +33612,7 @@
         <v>35</v>
       </c>
       <c r="E1746" t="n">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1747">
@@ -33631,7 +33631,7 @@
         <v>47</v>
       </c>
       <c r="E1747" t="n">
-        <v>1348</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1748">
@@ -33650,7 +33650,7 @@
         <v>42</v>
       </c>
       <c r="E1748" t="n">
-        <v>1186</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1749">
@@ -33669,7 +33669,7 @@
         <v>51</v>
       </c>
       <c r="E1749" t="n">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1750">
@@ -33688,7 +33688,7 @@
         <v>34</v>
       </c>
       <c r="E1750" t="n">
-        <v>1133</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1751">
@@ -33726,7 +33726,7 @@
         <v>40</v>
       </c>
       <c r="E1752" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1753">
@@ -33783,7 +33783,7 @@
         <v>51</v>
       </c>
       <c r="E1755" t="n">
-        <v>1170</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1756">
@@ -33802,7 +33802,7 @@
         <v>43</v>
       </c>
       <c r="E1756" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1757">
@@ -33840,7 +33840,7 @@
         <v>41</v>
       </c>
       <c r="E1758" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1759">
@@ -33859,7 +33859,7 @@
         <v>52</v>
       </c>
       <c r="E1759" t="n">
-        <v>1379</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1760">
@@ -33878,7 +33878,7 @@
         <v>49</v>
       </c>
       <c r="E1760" t="n">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1761">
@@ -33897,7 +33897,7 @@
         <v>43</v>
       </c>
       <c r="E1761" t="n">
-        <v>1162</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1762">
@@ -33916,7 +33916,7 @@
         <v>40</v>
       </c>
       <c r="E1762" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1763">
@@ -33954,7 +33954,7 @@
         <v>40</v>
       </c>
       <c r="E1764" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1765">
@@ -33973,7 +33973,7 @@
         <v>39</v>
       </c>
       <c r="E1765" t="n">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1766">
@@ -33992,7 +33992,7 @@
         <v>33</v>
       </c>
       <c r="E1766" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1767">
@@ -34011,7 +34011,7 @@
         <v>57</v>
       </c>
       <c r="E1767" t="n">
-        <v>1388</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1768">
@@ -34068,7 +34068,7 @@
         <v>34</v>
       </c>
       <c r="E1770" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="1771">
@@ -34087,7 +34087,7 @@
         <v>55</v>
       </c>
       <c r="E1771" t="n">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1772">
@@ -34125,7 +34125,7 @@
         <v>36</v>
       </c>
       <c r="E1773" t="n">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1774">
@@ -34144,7 +34144,7 @@
         <v>35</v>
       </c>
       <c r="E1774" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1775">
@@ -34163,7 +34163,7 @@
         <v>52</v>
       </c>
       <c r="E1775" t="n">
-        <v>1187</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1776">
@@ -34201,7 +34201,7 @@
         <v>38</v>
       </c>
       <c r="E1777" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1778">
@@ -34239,7 +34239,7 @@
         <v>51</v>
       </c>
       <c r="E1779" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1780">
@@ -34296,7 +34296,7 @@
         <v>46</v>
       </c>
       <c r="E1782" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1783">
@@ -34315,7 +34315,7 @@
         <v>43</v>
       </c>
       <c r="E1783" t="n">
-        <v>1372</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1784">
@@ -34334,7 +34334,7 @@
         <v>38</v>
       </c>
       <c r="E1784" t="n">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1785">
@@ -34353,7 +34353,7 @@
         <v>36</v>
       </c>
       <c r="E1785" t="n">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1786">
@@ -34391,7 +34391,7 @@
         <v>48</v>
       </c>
       <c r="E1787" t="n">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1788">
@@ -34448,7 +34448,7 @@
         <v>50</v>
       </c>
       <c r="E1790" t="n">
-        <v>1401</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1791">
@@ -34467,7 +34467,7 @@
         <v>50</v>
       </c>
       <c r="E1791" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1792">
@@ -34486,7 +34486,7 @@
         <v>40</v>
       </c>
       <c r="E1792" t="n">
-        <v>1129</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1793">
@@ -34524,7 +34524,7 @@
         <v>28</v>
       </c>
       <c r="E1794" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1795">
@@ -34543,7 +34543,7 @@
         <v>49</v>
       </c>
       <c r="E1795" t="n">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1796">
@@ -34562,7 +34562,7 @@
         <v>46</v>
       </c>
       <c r="E1796" t="n">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1797">
@@ -34581,7 +34581,7 @@
         <v>44</v>
       </c>
       <c r="E1797" t="n">
-        <v>955</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1798">
@@ -34619,7 +34619,7 @@
         <v>52</v>
       </c>
       <c r="E1799" t="n">
-        <v>1414</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1800">
@@ -34638,7 +34638,7 @@
         <v>45</v>
       </c>
       <c r="E1800" t="n">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1801">
@@ -34657,7 +34657,7 @@
         <v>42</v>
       </c>
       <c r="E1801" t="n">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1802">
@@ -34714,7 +34714,7 @@
         <v>45</v>
       </c>
       <c r="E1804" t="n">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1805">
@@ -34733,7 +34733,7 @@
         <v>43</v>
       </c>
       <c r="E1805" t="n">
-        <v>1372</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1806">
@@ -34752,7 +34752,7 @@
         <v>33</v>
       </c>
       <c r="E1806" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1807">
@@ -34790,7 +34790,7 @@
         <v>45</v>
       </c>
       <c r="E1808" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1809">
@@ -34809,7 +34809,7 @@
         <v>43</v>
       </c>
       <c r="E1809" t="n">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1810">
@@ -34828,7 +34828,7 @@
         <v>37</v>
       </c>
       <c r="E1810" t="n">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1811">
@@ -34866,7 +34866,7 @@
         <v>49</v>
       </c>
       <c r="E1812" t="n">
-        <v>1365</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1813">
@@ -34904,7 +34904,7 @@
         <v>35</v>
       </c>
       <c r="E1814" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1815">
@@ -34923,7 +34923,7 @@
         <v>52</v>
       </c>
       <c r="E1815" t="n">
-        <v>1390</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1816">
@@ -34942,7 +34942,7 @@
         <v>45</v>
       </c>
       <c r="E1816" t="n">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1817">
@@ -34980,7 +34980,7 @@
         <v>35</v>
       </c>
       <c r="E1818" t="n">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1819">
@@ -34999,7 +34999,7 @@
         <v>49</v>
       </c>
       <c r="E1819" t="n">
-        <v>1409</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1820">
@@ -35018,7 +35018,7 @@
         <v>47</v>
       </c>
       <c r="E1820" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1821">
@@ -35037,7 +35037,7 @@
         <v>44</v>
       </c>
       <c r="E1821" t="n">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1822">
@@ -35056,7 +35056,7 @@
         <v>43</v>
       </c>
       <c r="E1822" t="n">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1823">
@@ -35075,7 +35075,7 @@
         <v>57</v>
       </c>
       <c r="E1823" t="n">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1824">
@@ -35094,7 +35094,7 @@
         <v>47</v>
       </c>
       <c r="E1824" t="n">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1825">
@@ -35113,7 +35113,7 @@
         <v>39</v>
       </c>
       <c r="E1825" t="n">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1826">
@@ -35151,7 +35151,7 @@
         <v>55</v>
       </c>
       <c r="E1827" t="n">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1828">
@@ -35170,7 +35170,7 @@
         <v>51</v>
       </c>
       <c r="E1828" t="n">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1829">
@@ -35189,7 +35189,7 @@
         <v>42</v>
       </c>
       <c r="E1829" t="n">
-        <v>1366</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1830">
@@ -35208,7 +35208,7 @@
         <v>34</v>
       </c>
       <c r="E1830" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1831">
@@ -35246,7 +35246,7 @@
         <v>46</v>
       </c>
       <c r="E1832" t="n">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1833">
@@ -35265,7 +35265,7 @@
         <v>45</v>
       </c>
       <c r="E1833" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1834">
@@ -35284,7 +35284,7 @@
         <v>40</v>
       </c>
       <c r="E1834" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1835">
@@ -35303,7 +35303,7 @@
         <v>52</v>
       </c>
       <c r="E1835" t="n">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1836">
@@ -35398,7 +35398,7 @@
         <v>45</v>
       </c>
       <c r="E1840" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1841">
@@ -35417,7 +35417,7 @@
         <v>38</v>
       </c>
       <c r="E1841" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1842">
@@ -35455,7 +35455,7 @@
         <v>55</v>
       </c>
       <c r="E1843" t="n">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1844">
@@ -35474,7 +35474,7 @@
         <v>48</v>
       </c>
       <c r="E1844" t="n">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1845">
@@ -35531,7 +35531,7 @@
         <v>57</v>
       </c>
       <c r="E1847" t="n">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1848">
@@ -35569,7 +35569,7 @@
         <v>38</v>
       </c>
       <c r="E1849" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1850">
@@ -35607,7 +35607,7 @@
         <v>54</v>
       </c>
       <c r="E1851" t="n">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1852">
@@ -35664,7 +35664,7 @@
         <v>36</v>
       </c>
       <c r="E1854" t="n">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1855">
@@ -35721,7 +35721,7 @@
         <v>37</v>
       </c>
       <c r="E1857" t="n">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1858">
@@ -35778,7 +35778,7 @@
         <v>47</v>
       </c>
       <c r="E1860" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1861">
@@ -35797,7 +35797,7 @@
         <v>39</v>
       </c>
       <c r="E1861" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1862">
@@ -35854,7 +35854,7 @@
         <v>49</v>
       </c>
       <c r="E1864" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1865">
@@ -35873,7 +35873,7 @@
         <v>44</v>
       </c>
       <c r="E1865" t="n">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1866">
@@ -35892,7 +35892,7 @@
         <v>34</v>
       </c>
       <c r="E1866" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1867">
@@ -35930,7 +35930,7 @@
         <v>48</v>
       </c>
       <c r="E1868" t="n">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1869">
@@ -35949,7 +35949,7 @@
         <v>43</v>
       </c>
       <c r="E1869" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1870">
@@ -35987,7 +35987,7 @@
         <v>54</v>
       </c>
       <c r="E1871" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1872">
@@ -36006,7 +36006,7 @@
         <v>49</v>
       </c>
       <c r="E1872" t="n">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1873">
@@ -36082,7 +36082,7 @@
         <v>45</v>
       </c>
       <c r="E1876" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1877">
@@ -36101,7 +36101,7 @@
         <v>44</v>
       </c>
       <c r="E1877" t="n">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1878">
@@ -36121,6 +36121,1222 @@
       </c>
       <c r="E1878" t="n">
         <v>833</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>Maïa</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>Maïa</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>Benoit</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>Benoit</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>Maïa</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>57</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>Nath</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>Benoit</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>Franck</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>Denes</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>Florian</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>20241218</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MK8_Tournaments_Elo.xlsx
+++ b/Data/MK8_Tournaments_Elo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1942"/>
+  <dimension ref="A1:E2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37339,6 +37339,1146 @@
         <v>1166</v>
       </c>
     </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1960" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>51</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>38</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>57</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>42</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>Isabel</t>
+        </is>
+      </c>
+      <c r="C1974" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>57</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C1988" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>47</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>43</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>Romain</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>49</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>Luca</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>37</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Sacha</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>48</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>Lev</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>Ilir</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>20250205</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>Sébastien</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>44</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>1293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
